--- a/trunk/Proyecto final/ProductBacklogProyecto/Actualizacion Product Backlog.xlsx
+++ b/trunk/Proyecto final/ProductBacklogProyecto/Actualizacion Product Backlog.xlsx
@@ -11,9 +11,6 @@
     <sheet name="Product Backlog Replanificado" sheetId="1" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Iteration_1">#REF!</definedName>
   </definedNames>
@@ -1076,9 +1073,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1113,6 +1107,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1126,23 +1123,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Backlog Items"/>
-      <sheetName val="Sprint02"/>
-      <sheetName val="Sprint03"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1432,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:X81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1967,16 +1947,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="63" t="s">
         <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1985,7 +1965,7 @@
       <c r="F1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="63" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2015,7 +1995,7 @@
       <c r="P1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="65" t="s">
+      <c r="Q1" s="64" t="s">
         <v>64</v>
       </c>
       <c r="R1" s="2" t="s">
@@ -2029,49 +2009,49 @@
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
-      <c r="W1" s="64" t="s">
+      <c r="W1" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="66" t="s">
+      <c r="X1" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="66" t="s">
+      <c r="Y1" s="65" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="64" t="s">
+      <c r="A2" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="69" t="s">
+      <c r="C2" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="68" t="s">
         <v>70</v>
       </c>
       <c r="E2" s="2">
         <f>6*X2</f>
         <v>18</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="63" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="64"/>
+      <c r="I2" s="63"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="64"/>
+      <c r="S2" s="63"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -2081,43 +2061,43 @@
       <c r="X2" s="2">
         <v>3</v>
       </c>
-      <c r="Y2" s="70" t="s">
+      <c r="Y2" s="69" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A3" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="64" t="s">
+      <c r="A3" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="64" t="s">
+      <c r="C3" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="63" t="s">
         <v>72</v>
       </c>
       <c r="E3" s="2">
         <f>6*X3</f>
         <v>6</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="63" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="64"/>
+      <c r="I3" s="63"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="64"/>
+      <c r="S3" s="63"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -2127,43 +2107,43 @@
       <c r="X3" s="2">
         <v>1</v>
       </c>
-      <c r="Y3" s="70" t="s">
+      <c r="Y3" s="69" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="64" t="s">
+      <c r="C4" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="63" t="s">
         <v>74</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ref="E4:E11" si="0">6*X4</f>
         <v>18</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="63" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="64"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="64"/>
+      <c r="S4" s="63"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
@@ -2173,41 +2153,41 @@
       <c r="X4" s="2">
         <v>3</v>
       </c>
-      <c r="Y4" s="71"/>
+      <c r="Y4" s="70"/>
     </row>
     <row r="5" spans="1:25" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A5" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="64" t="s">
+      <c r="C5" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="63" t="s">
         <v>76</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="63" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="64"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="64"/>
+      <c r="S5" s="63"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
@@ -2217,7 +2197,7 @@
       <c r="X5" s="2">
         <v>13</v>
       </c>
-      <c r="Y5" s="70" t="s">
+      <c r="Y5" s="69" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2474,25 +2454,25 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A12" s="67"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="72"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="71"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="64"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="64"/>
+      <c r="S12" s="63"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -2500,83 +2480,83 @@
       <c r="X12" s="2"/>
     </row>
     <row r="13" spans="1:25" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A13" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="74" t="s">
+      <c r="A13" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="74" t="s">
+      <c r="C13" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="75">
         <f t="shared" ref="E13:E21" si="1">6*X13</f>
         <v>30</v>
       </c>
-      <c r="F13" s="76" t="s">
+      <c r="F13" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="76">
-        <v>3</v>
-      </c>
-      <c r="X13" s="77">
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="75">
+        <v>3</v>
+      </c>
+      <c r="X13" s="76">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A14" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="74" t="s">
+      <c r="A14" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="73"/>
+      <c r="C14" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="76">
+      <c r="E14" s="75">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="F14" s="76" t="s">
+      <c r="F14" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="76">
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="73"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75">
         <v>3</v>
       </c>
       <c r="X14" s="2">
@@ -2584,83 +2564,83 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A15" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="74" t="s">
+      <c r="A15" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="76">
+      <c r="E15" s="75">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="F15" s="76" t="s">
+      <c r="F15" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="76"/>
-      <c r="U15" s="76"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="76">
-        <v>3</v>
-      </c>
-      <c r="X15" s="78">
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="75"/>
+      <c r="W15" s="75">
+        <v>3</v>
+      </c>
+      <c r="X15" s="77">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A16" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="74" t="s">
+      <c r="A16" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="74" t="s">
+      <c r="C16" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E16" s="75">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="F16" s="76" t="s">
+      <c r="F16" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="76"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="76"/>
-      <c r="U16" s="76"/>
-      <c r="V16" s="76"/>
-      <c r="W16" s="76">
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="75">
         <v>3</v>
       </c>
       <c r="X16" s="2">
@@ -2668,232 +2648,232 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A17" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="74" t="s">
+      <c r="A17" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="73"/>
+      <c r="C17" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="76">
+      <c r="E17" s="75">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="F17" s="76" t="s">
+      <c r="F17" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="76">
-        <v>3</v>
-      </c>
-      <c r="X17" s="77">
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="75"/>
+      <c r="W17" s="75">
+        <v>3</v>
+      </c>
+      <c r="X17" s="76">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A18" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="74" t="s">
+      <c r="A18" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="73"/>
+      <c r="C18" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="76">
+      <c r="E18" s="75">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="F18" s="76" t="s">
+      <c r="F18" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="76"/>
-      <c r="U18" s="76"/>
-      <c r="V18" s="76"/>
-      <c r="W18" s="76">
-        <v>3</v>
-      </c>
-      <c r="X18" s="77">
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="75"/>
+      <c r="W18" s="75">
+        <v>3</v>
+      </c>
+      <c r="X18" s="76">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A19" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="80" t="s">
+      <c r="A19" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="80" t="s">
+      <c r="C19" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="82">
+      <c r="E19" s="81">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="F19" s="82" t="s">
+      <c r="F19" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="80"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="80"/>
-      <c r="T19" s="82"/>
-      <c r="U19" s="82"/>
-      <c r="V19" s="82"/>
-      <c r="W19" s="82">
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="81"/>
+      <c r="U19" s="81"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="81">
         <v>4</v>
       </c>
-      <c r="X19" s="77">
+      <c r="X19" s="76">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A20" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="80" t="s">
+      <c r="A20" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="79"/>
+      <c r="C20" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="82">
+      <c r="E20" s="81">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="F20" s="82" t="s">
+      <c r="F20" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="82"/>
-      <c r="U20" s="82"/>
-      <c r="V20" s="82"/>
-      <c r="W20" s="82">
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="81"/>
+      <c r="V20" s="81"/>
+      <c r="W20" s="81">
         <v>4</v>
       </c>
-      <c r="X20" s="77">
+      <c r="X20" s="76">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A21" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="80" t="s">
+      <c r="A21" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="79"/>
+      <c r="C21" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="82">
+      <c r="E21" s="81">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="F21" s="80" t="s">
+      <c r="F21" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="80"/>
-      <c r="T21" s="82"/>
-      <c r="U21" s="82"/>
-      <c r="V21" s="82"/>
-      <c r="W21" s="82">
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="81"/>
+      <c r="U21" s="81"/>
+      <c r="V21" s="81"/>
+      <c r="W21" s="81">
         <v>4</v>
       </c>
-      <c r="X21" s="77">
+      <c r="X21" s="76">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A22" s="67"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="72"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="71"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="64"/>
+      <c r="I22" s="63"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="64"/>
+      <c r="S22" s="63"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
@@ -2901,42 +2881,42 @@
       <c r="X22" s="2"/>
     </row>
     <row r="23" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A23" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="72" t="s">
+      <c r="A23" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="84" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="72" t="s">
+      <c r="C23" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="65">
+      <c r="E23" s="64">
         <f>6*X23</f>
         <v>18</v>
       </c>
-      <c r="F23" s="72" t="s">
+      <c r="F23" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65">
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="64">
         <v>5</v>
       </c>
       <c r="X23" s="2">
@@ -2944,271 +2924,271 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A24" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="84" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="72" t="s">
+      <c r="A24" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="64"/>
+      <c r="C24" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="65">
+      <c r="E24" s="64">
         <f t="shared" ref="E24:E29" si="2">6*X24</f>
         <v>12</v>
       </c>
-      <c r="F24" s="72" t="s">
+      <c r="F24" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="65"/>
-      <c r="V24" s="65"/>
-      <c r="W24" s="65">
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="64">
         <v>5</v>
       </c>
-      <c r="X24" s="77">
+      <c r="X24" s="76">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A25" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="84" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="72" t="s">
+      <c r="A25" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="64"/>
+      <c r="C25" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="65">
+      <c r="E25" s="64">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="F25" s="72" t="s">
+      <c r="F25" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="65"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="65">
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="64">
         <v>5</v>
       </c>
-      <c r="X25" s="77">
+      <c r="X25" s="76">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A26" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="84" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="72" t="s">
+      <c r="A26" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="64"/>
+      <c r="C26" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="65">
+      <c r="E26" s="64">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="65"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="65"/>
-      <c r="U26" s="65"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="65">
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64">
         <v>5</v>
       </c>
-      <c r="X26" s="77">
+      <c r="X26" s="76">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A27" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="84" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="72" t="s">
+      <c r="A27" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="64"/>
+      <c r="C27" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="65">
+      <c r="E27" s="64">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="F27" s="72" t="s">
+      <c r="F27" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="65"/>
-      <c r="V27" s="65"/>
-      <c r="W27" s="65">
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64">
         <v>5</v>
       </c>
-      <c r="X27" s="77">
+      <c r="X27" s="76">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A28" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="84" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="72" t="s">
+      <c r="A28" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="64"/>
+      <c r="C28" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="65">
+      <c r="E28" s="64">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="F28" s="72" t="s">
+      <c r="F28" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="65"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="65"/>
-      <c r="V28" s="65"/>
-      <c r="W28" s="65">
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64">
         <v>5</v>
       </c>
-      <c r="X28" s="77">
+      <c r="X28" s="76">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A29" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="84" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="72" t="s">
+      <c r="A29" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="64"/>
+      <c r="C29" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="65">
+      <c r="E29" s="64">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="F29" s="72" t="s">
+      <c r="F29" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="65"/>
-      <c r="V29" s="65"/>
-      <c r="W29" s="65">
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64">
         <v>5</v>
       </c>
-      <c r="X29" s="77">
+      <c r="X29" s="76">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A30" s="67"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="72"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="71"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="64"/>
+      <c r="I30" s="63"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="64"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="64"/>
+      <c r="S30" s="63"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
@@ -3216,83 +3196,83 @@
       <c r="X30" s="2"/>
     </row>
     <row r="31" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A31" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="74" t="s">
+      <c r="A31" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="74" t="s">
+      <c r="C31" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="76">
+      <c r="E31" s="75">
         <f t="shared" ref="E31:E36" si="3">6*X31</f>
         <v>48</v>
       </c>
-      <c r="F31" s="74" t="s">
+      <c r="F31" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="76"/>
-      <c r="R31" s="76"/>
-      <c r="S31" s="74"/>
-      <c r="T31" s="76"/>
-      <c r="U31" s="76"/>
-      <c r="V31" s="76"/>
-      <c r="W31" s="76">
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="75"/>
+      <c r="R31" s="75"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="75"/>
+      <c r="U31" s="75"/>
+      <c r="V31" s="75"/>
+      <c r="W31" s="75">
         <v>6</v>
       </c>
-      <c r="X31" s="77">
+      <c r="X31" s="76">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A32" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="74" t="s">
+      <c r="A32" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="75"/>
+      <c r="C32" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="76">
+      <c r="E32" s="75">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="F32" s="74" t="s">
+      <c r="F32" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="74"/>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="76"/>
-      <c r="S32" s="74"/>
-      <c r="T32" s="76"/>
-      <c r="U32" s="76"/>
-      <c r="V32" s="76"/>
-      <c r="W32" s="76">
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="75"/>
+      <c r="R32" s="75"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="75"/>
+      <c r="U32" s="75"/>
+      <c r="V32" s="75"/>
+      <c r="W32" s="75">
         <v>6</v>
       </c>
       <c r="X32" s="2">
@@ -3300,40 +3280,40 @@
       </c>
     </row>
     <row r="33" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A33" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="74" t="s">
+      <c r="A33" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="75"/>
+      <c r="C33" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="76">
+      <c r="E33" s="75">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="F33" s="74" t="s">
+      <c r="F33" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="74"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="76"/>
-      <c r="S33" s="74"/>
-      <c r="T33" s="76"/>
-      <c r="U33" s="76"/>
-      <c r="V33" s="76"/>
-      <c r="W33" s="76">
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="75"/>
+      <c r="R33" s="75"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="75"/>
+      <c r="U33" s="75"/>
+      <c r="V33" s="75"/>
+      <c r="W33" s="75">
         <v>6</v>
       </c>
       <c r="X33" s="2">
@@ -3341,40 +3321,40 @@
       </c>
     </row>
     <row r="34" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A34" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="76"/>
-      <c r="C34" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="74" t="s">
+      <c r="A34" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="75"/>
+      <c r="C34" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="76">
+      <c r="E34" s="75">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="F34" s="74" t="s">
+      <c r="F34" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="76"/>
-      <c r="R34" s="76"/>
-      <c r="S34" s="74"/>
-      <c r="T34" s="76"/>
-      <c r="U34" s="76"/>
-      <c r="V34" s="76"/>
-      <c r="W34" s="76">
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="75"/>
+      <c r="R34" s="75"/>
+      <c r="S34" s="73"/>
+      <c r="T34" s="75"/>
+      <c r="U34" s="75"/>
+      <c r="V34" s="75"/>
+      <c r="W34" s="75">
         <v>6</v>
       </c>
       <c r="X34" s="2">
@@ -3382,40 +3362,40 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A35" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="76"/>
-      <c r="C35" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="74" t="s">
+      <c r="A35" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="75"/>
+      <c r="C35" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="76">
+      <c r="E35" s="75">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="F35" s="74" t="s">
+      <c r="F35" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="76"/>
-      <c r="R35" s="76"/>
-      <c r="S35" s="74"/>
-      <c r="T35" s="76"/>
-      <c r="U35" s="76"/>
-      <c r="V35" s="76"/>
-      <c r="W35" s="76">
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="75"/>
+      <c r="R35" s="75"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="75"/>
+      <c r="U35" s="75"/>
+      <c r="V35" s="75"/>
+      <c r="W35" s="75">
         <v>6</v>
       </c>
       <c r="X35" s="2">
@@ -3423,40 +3403,40 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A36" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="74"/>
-      <c r="C36" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="74" t="s">
+      <c r="A36" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="73"/>
+      <c r="C36" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="76">
+      <c r="E36" s="75">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="F36" s="74" t="s">
+      <c r="F36" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="76"/>
-      <c r="R36" s="76"/>
-      <c r="S36" s="74"/>
-      <c r="T36" s="76"/>
-      <c r="U36" s="76"/>
-      <c r="V36" s="76"/>
-      <c r="W36" s="76">
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="75"/>
+      <c r="R36" s="75"/>
+      <c r="S36" s="73"/>
+      <c r="T36" s="75"/>
+      <c r="U36" s="75"/>
+      <c r="V36" s="75"/>
+      <c r="W36" s="75">
         <v>6</v>
       </c>
       <c r="X36" s="2">
@@ -3464,25 +3444,25 @@
       </c>
     </row>
     <row r="37" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A37" s="67"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="72"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="71"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="64"/>
+      <c r="I37" s="63"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="64"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="64"/>
+      <c r="S37" s="63"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
@@ -3490,42 +3470,42 @@
       <c r="X37" s="2"/>
     </row>
     <row r="38" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A38" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="80" t="s">
+      <c r="A38" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="80" t="s">
+      <c r="C38" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="82">
+      <c r="E38" s="81">
         <f>6*X38</f>
         <v>30</v>
       </c>
-      <c r="F38" s="80" t="s">
+      <c r="F38" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="80"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="80"/>
-      <c r="P38" s="80"/>
-      <c r="Q38" s="82"/>
-      <c r="R38" s="82"/>
-      <c r="S38" s="80"/>
-      <c r="T38" s="82"/>
-      <c r="U38" s="82"/>
-      <c r="V38" s="82"/>
-      <c r="W38" s="82">
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="79"/>
+      <c r="M38" s="79"/>
+      <c r="N38" s="79"/>
+      <c r="O38" s="79"/>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="81"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="81"/>
+      <c r="U38" s="81"/>
+      <c r="V38" s="81"/>
+      <c r="W38" s="81">
         <v>7</v>
       </c>
       <c r="X38" s="2">
@@ -3533,40 +3513,40 @@
       </c>
     </row>
     <row r="39" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A39" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="82"/>
-      <c r="C39" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="80" t="s">
+      <c r="A39" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="81"/>
+      <c r="C39" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="82">
+      <c r="E39" s="81">
         <f t="shared" ref="E39:E50" si="4">6*X39</f>
         <v>18</v>
       </c>
-      <c r="F39" s="80" t="s">
+      <c r="F39" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="80"/>
-      <c r="M39" s="80"/>
-      <c r="N39" s="80"/>
-      <c r="O39" s="80"/>
-      <c r="P39" s="80"/>
-      <c r="Q39" s="82"/>
-      <c r="R39" s="82"/>
-      <c r="S39" s="80"/>
-      <c r="T39" s="82"/>
-      <c r="U39" s="82"/>
-      <c r="V39" s="82"/>
-      <c r="W39" s="82">
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="79"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="79"/>
+      <c r="O39" s="79"/>
+      <c r="P39" s="79"/>
+      <c r="Q39" s="81"/>
+      <c r="R39" s="81"/>
+      <c r="S39" s="79"/>
+      <c r="T39" s="81"/>
+      <c r="U39" s="81"/>
+      <c r="V39" s="81"/>
+      <c r="W39" s="81">
         <v>7</v>
       </c>
       <c r="X39" s="2">
@@ -3574,40 +3554,40 @@
       </c>
     </row>
     <row r="40" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A40" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="82"/>
-      <c r="C40" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="80" t="s">
+      <c r="A40" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="81"/>
+      <c r="C40" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="82">
+      <c r="E40" s="81">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="F40" s="80" t="s">
+      <c r="F40" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="82"/>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
-      <c r="N40" s="80"/>
-      <c r="O40" s="80"/>
-      <c r="P40" s="80"/>
-      <c r="Q40" s="82"/>
-      <c r="R40" s="82"/>
-      <c r="S40" s="80"/>
-      <c r="T40" s="82"/>
-      <c r="U40" s="82"/>
-      <c r="V40" s="82"/>
-      <c r="W40" s="82">
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="79"/>
+      <c r="O40" s="79"/>
+      <c r="P40" s="79"/>
+      <c r="Q40" s="81"/>
+      <c r="R40" s="81"/>
+      <c r="S40" s="79"/>
+      <c r="T40" s="81"/>
+      <c r="U40" s="81"/>
+      <c r="V40" s="81"/>
+      <c r="W40" s="81">
         <v>7</v>
       </c>
       <c r="X40" s="2">
@@ -3615,40 +3595,40 @@
       </c>
     </row>
     <row r="41" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A41" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="82"/>
-      <c r="C41" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="80" t="s">
+      <c r="A41" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="81"/>
+      <c r="C41" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="E41" s="82">
+      <c r="E41" s="81">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="F41" s="80" t="s">
+      <c r="F41" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
-      <c r="M41" s="80"/>
-      <c r="N41" s="80"/>
-      <c r="O41" s="80"/>
-      <c r="P41" s="80"/>
-      <c r="Q41" s="82"/>
-      <c r="R41" s="82"/>
-      <c r="S41" s="80"/>
-      <c r="T41" s="82"/>
-      <c r="U41" s="82"/>
-      <c r="V41" s="82"/>
-      <c r="W41" s="82">
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="79"/>
+      <c r="P41" s="79"/>
+      <c r="Q41" s="81"/>
+      <c r="R41" s="81"/>
+      <c r="S41" s="79"/>
+      <c r="T41" s="81"/>
+      <c r="U41" s="81"/>
+      <c r="V41" s="81"/>
+      <c r="W41" s="81">
         <v>7</v>
       </c>
       <c r="X41" s="2">
@@ -3656,40 +3636,40 @@
       </c>
     </row>
     <row r="42" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A42" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="82"/>
-      <c r="C42" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="80" t="s">
+      <c r="A42" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="81"/>
+      <c r="C42" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="82">
+      <c r="E42" s="81">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="F42" s="80" t="s">
+      <c r="F42" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="82"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="80"/>
-      <c r="N42" s="80"/>
-      <c r="O42" s="80"/>
-      <c r="P42" s="80"/>
-      <c r="Q42" s="82"/>
-      <c r="R42" s="82"/>
-      <c r="S42" s="80"/>
-      <c r="T42" s="82"/>
-      <c r="U42" s="82"/>
-      <c r="V42" s="82"/>
-      <c r="W42" s="82">
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="79"/>
+      <c r="M42" s="79"/>
+      <c r="N42" s="79"/>
+      <c r="O42" s="79"/>
+      <c r="P42" s="79"/>
+      <c r="Q42" s="81"/>
+      <c r="R42" s="81"/>
+      <c r="S42" s="79"/>
+      <c r="T42" s="81"/>
+      <c r="U42" s="81"/>
+      <c r="V42" s="81"/>
+      <c r="W42" s="81">
         <v>7</v>
       </c>
       <c r="X42" s="2">
@@ -3697,40 +3677,40 @@
       </c>
     </row>
     <row r="43" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A43" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="82"/>
-      <c r="C43" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="80" t="s">
+      <c r="A43" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="81"/>
+      <c r="C43" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="E43" s="82">
+      <c r="E43" s="81">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="F43" s="80" t="s">
+      <c r="F43" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="82"/>
-      <c r="L43" s="80"/>
-      <c r="M43" s="80"/>
-      <c r="N43" s="80"/>
-      <c r="O43" s="80"/>
-      <c r="P43" s="80"/>
-      <c r="Q43" s="82"/>
-      <c r="R43" s="82"/>
-      <c r="S43" s="80"/>
-      <c r="T43" s="82"/>
-      <c r="U43" s="82"/>
-      <c r="V43" s="82"/>
-      <c r="W43" s="82">
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="81"/>
+      <c r="L43" s="79"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="79"/>
+      <c r="O43" s="79"/>
+      <c r="P43" s="79"/>
+      <c r="Q43" s="81"/>
+      <c r="R43" s="81"/>
+      <c r="S43" s="79"/>
+      <c r="T43" s="81"/>
+      <c r="U43" s="81"/>
+      <c r="V43" s="81"/>
+      <c r="W43" s="81">
         <v>7</v>
       </c>
       <c r="X43" s="2">
@@ -3738,40 +3718,40 @@
       </c>
     </row>
     <row r="44" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A44" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="82"/>
-      <c r="C44" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="80" t="s">
+      <c r="A44" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="81"/>
+      <c r="C44" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="82">
+      <c r="E44" s="81">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="F44" s="80" t="s">
+      <c r="F44" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="82"/>
-      <c r="H44" s="82"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="82"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="80"/>
-      <c r="N44" s="80"/>
-      <c r="O44" s="80"/>
-      <c r="P44" s="80"/>
-      <c r="Q44" s="82"/>
-      <c r="R44" s="82"/>
-      <c r="S44" s="80"/>
-      <c r="T44" s="82"/>
-      <c r="U44" s="82"/>
-      <c r="V44" s="82"/>
-      <c r="W44" s="82">
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="81"/>
+      <c r="K44" s="81"/>
+      <c r="L44" s="79"/>
+      <c r="M44" s="79"/>
+      <c r="N44" s="79"/>
+      <c r="O44" s="79"/>
+      <c r="P44" s="79"/>
+      <c r="Q44" s="81"/>
+      <c r="R44" s="81"/>
+      <c r="S44" s="79"/>
+      <c r="T44" s="81"/>
+      <c r="U44" s="81"/>
+      <c r="V44" s="81"/>
+      <c r="W44" s="81">
         <v>7</v>
       </c>
       <c r="X44" s="2">
@@ -3779,40 +3759,40 @@
       </c>
     </row>
     <row r="45" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A45" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="82"/>
-      <c r="C45" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="80" t="s">
+      <c r="A45" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="81"/>
+      <c r="C45" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="E45" s="82">
+      <c r="E45" s="81">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="F45" s="80" t="s">
+      <c r="F45" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="80"/>
-      <c r="N45" s="80"/>
-      <c r="O45" s="80"/>
-      <c r="P45" s="80"/>
-      <c r="Q45" s="82"/>
-      <c r="R45" s="82"/>
-      <c r="S45" s="80"/>
-      <c r="T45" s="82"/>
-      <c r="U45" s="82"/>
-      <c r="V45" s="82"/>
-      <c r="W45" s="82">
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="79"/>
+      <c r="M45" s="79"/>
+      <c r="N45" s="79"/>
+      <c r="O45" s="79"/>
+      <c r="P45" s="79"/>
+      <c r="Q45" s="81"/>
+      <c r="R45" s="81"/>
+      <c r="S45" s="79"/>
+      <c r="T45" s="81"/>
+      <c r="U45" s="81"/>
+      <c r="V45" s="81"/>
+      <c r="W45" s="81">
         <v>7</v>
       </c>
       <c r="X45" s="2">
@@ -3820,40 +3800,40 @@
       </c>
     </row>
     <row r="46" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A46" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="80" t="s">
+      <c r="A46" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="81"/>
+      <c r="C46" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="E46" s="82">
+      <c r="E46" s="81">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="F46" s="80" t="s">
+      <c r="F46" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="80"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="82"/>
-      <c r="L46" s="80"/>
-      <c r="M46" s="80"/>
-      <c r="N46" s="80"/>
-      <c r="O46" s="80"/>
-      <c r="P46" s="80"/>
-      <c r="Q46" s="82"/>
-      <c r="R46" s="82"/>
-      <c r="S46" s="80"/>
-      <c r="T46" s="82"/>
-      <c r="U46" s="82"/>
-      <c r="V46" s="82"/>
-      <c r="W46" s="82">
+      <c r="G46" s="81"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="81"/>
+      <c r="L46" s="79"/>
+      <c r="M46" s="79"/>
+      <c r="N46" s="79"/>
+      <c r="O46" s="79"/>
+      <c r="P46" s="79"/>
+      <c r="Q46" s="81"/>
+      <c r="R46" s="81"/>
+      <c r="S46" s="79"/>
+      <c r="T46" s="81"/>
+      <c r="U46" s="81"/>
+      <c r="V46" s="81"/>
+      <c r="W46" s="81">
         <v>7</v>
       </c>
       <c r="X46" s="2">
@@ -3861,40 +3841,40 @@
       </c>
     </row>
     <row r="47" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A47" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="82"/>
-      <c r="C47" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="80" t="s">
+      <c r="A47" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="81"/>
+      <c r="C47" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="82">
+      <c r="E47" s="81">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="F47" s="80" t="s">
+      <c r="F47" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="82"/>
-      <c r="L47" s="80"/>
-      <c r="M47" s="80"/>
-      <c r="N47" s="80"/>
-      <c r="O47" s="80"/>
-      <c r="P47" s="80"/>
-      <c r="Q47" s="82"/>
-      <c r="R47" s="82"/>
-      <c r="S47" s="80"/>
-      <c r="T47" s="82"/>
-      <c r="U47" s="82"/>
-      <c r="V47" s="82"/>
-      <c r="W47" s="82">
+      <c r="G47" s="81"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="79"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="79"/>
+      <c r="M47" s="79"/>
+      <c r="N47" s="79"/>
+      <c r="O47" s="79"/>
+      <c r="P47" s="79"/>
+      <c r="Q47" s="81"/>
+      <c r="R47" s="81"/>
+      <c r="S47" s="79"/>
+      <c r="T47" s="81"/>
+      <c r="U47" s="81"/>
+      <c r="V47" s="81"/>
+      <c r="W47" s="81">
         <v>7</v>
       </c>
       <c r="X47" s="2">
@@ -3902,40 +3882,40 @@
       </c>
     </row>
     <row r="48" spans="1:24" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A48" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="82"/>
-      <c r="C48" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="80" t="s">
+      <c r="A48" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="81"/>
+      <c r="C48" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="E48" s="82">
+      <c r="E48" s="81">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="F48" s="80" t="s">
+      <c r="F48" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="82"/>
-      <c r="L48" s="80"/>
-      <c r="M48" s="80"/>
-      <c r="N48" s="80"/>
-      <c r="O48" s="80"/>
-      <c r="P48" s="80"/>
-      <c r="Q48" s="82"/>
-      <c r="R48" s="82"/>
-      <c r="S48" s="80"/>
-      <c r="T48" s="82"/>
-      <c r="U48" s="82"/>
-      <c r="V48" s="82"/>
-      <c r="W48" s="82">
+      <c r="G48" s="81"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="79"/>
+      <c r="M48" s="79"/>
+      <c r="N48" s="79"/>
+      <c r="O48" s="79"/>
+      <c r="P48" s="79"/>
+      <c r="Q48" s="81"/>
+      <c r="R48" s="81"/>
+      <c r="S48" s="79"/>
+      <c r="T48" s="81"/>
+      <c r="U48" s="81"/>
+      <c r="V48" s="81"/>
+      <c r="W48" s="81">
         <v>7</v>
       </c>
       <c r="X48" s="2">
@@ -3943,40 +3923,40 @@
       </c>
     </row>
     <row r="49" spans="1:28" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A49" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="82"/>
-      <c r="C49" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="80" t="s">
+      <c r="A49" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="81"/>
+      <c r="C49" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="E49" s="82">
+      <c r="E49" s="81">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="F49" s="80" t="s">
+      <c r="F49" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="80"/>
-      <c r="N49" s="80"/>
-      <c r="O49" s="80"/>
-      <c r="P49" s="80"/>
-      <c r="Q49" s="82"/>
-      <c r="R49" s="82"/>
-      <c r="S49" s="80"/>
-      <c r="T49" s="82"/>
-      <c r="U49" s="82"/>
-      <c r="V49" s="82"/>
-      <c r="W49" s="82">
+      <c r="G49" s="81"/>
+      <c r="H49" s="81"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="81"/>
+      <c r="K49" s="81"/>
+      <c r="L49" s="79"/>
+      <c r="M49" s="79"/>
+      <c r="N49" s="79"/>
+      <c r="O49" s="79"/>
+      <c r="P49" s="79"/>
+      <c r="Q49" s="81"/>
+      <c r="R49" s="81"/>
+      <c r="S49" s="79"/>
+      <c r="T49" s="81"/>
+      <c r="U49" s="81"/>
+      <c r="V49" s="81"/>
+      <c r="W49" s="81">
         <v>7</v>
       </c>
       <c r="X49" s="2">
@@ -3984,40 +3964,40 @@
       </c>
     </row>
     <row r="50" spans="1:28" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A50" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="82"/>
-      <c r="C50" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="80" t="s">
+      <c r="A50" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="81"/>
+      <c r="C50" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="E50" s="82">
+      <c r="E50" s="81">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="F50" s="80" t="s">
+      <c r="F50" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="82"/>
-      <c r="L50" s="80"/>
-      <c r="M50" s="80"/>
-      <c r="N50" s="80"/>
-      <c r="O50" s="80"/>
-      <c r="P50" s="80"/>
-      <c r="Q50" s="82"/>
-      <c r="R50" s="82"/>
-      <c r="S50" s="80"/>
-      <c r="T50" s="82"/>
-      <c r="U50" s="82"/>
-      <c r="V50" s="82"/>
-      <c r="W50" s="82">
+      <c r="G50" s="81"/>
+      <c r="H50" s="81"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="81"/>
+      <c r="K50" s="81"/>
+      <c r="L50" s="79"/>
+      <c r="M50" s="79"/>
+      <c r="N50" s="79"/>
+      <c r="O50" s="79"/>
+      <c r="P50" s="79"/>
+      <c r="Q50" s="81"/>
+      <c r="R50" s="81"/>
+      <c r="S50" s="79"/>
+      <c r="T50" s="81"/>
+      <c r="U50" s="81"/>
+      <c r="V50" s="81"/>
+      <c r="W50" s="81">
         <v>7</v>
       </c>
       <c r="X50" s="2">
@@ -4025,25 +4005,25 @@
       </c>
     </row>
     <row r="51" spans="1:28" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A51" s="67"/>
+      <c r="A51" s="66"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="72"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="71"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="64"/>
+      <c r="I51" s="63"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="64"/>
-      <c r="N51" s="64"/>
-      <c r="O51" s="64"/>
-      <c r="P51" s="64"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="63"/>
+      <c r="N51" s="63"/>
+      <c r="O51" s="63"/>
+      <c r="P51" s="63"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
-      <c r="S51" s="64"/>
+      <c r="S51" s="63"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
@@ -4051,109 +4031,109 @@
       <c r="X51" s="2"/>
     </row>
     <row r="52" spans="1:28" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A52" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="65" t="s">
+      <c r="A52" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="C52" s="84" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="72" t="s">
+      <c r="C52" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="E52" s="65">
+      <c r="E52" s="64">
         <f>6*X52</f>
         <v>30</v>
       </c>
-      <c r="F52" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="72"/>
-      <c r="N52" s="72"/>
-      <c r="O52" s="72"/>
-      <c r="P52" s="72"/>
-      <c r="Q52" s="65"/>
-      <c r="R52" s="65"/>
-      <c r="S52" s="72"/>
-      <c r="T52" s="65"/>
-      <c r="U52" s="65"/>
-      <c r="V52" s="65"/>
-      <c r="W52" s="65">
+      <c r="F52" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="71"/>
+      <c r="L52" s="71"/>
+      <c r="M52" s="71"/>
+      <c r="N52" s="71"/>
+      <c r="O52" s="71"/>
+      <c r="P52" s="71"/>
+      <c r="Q52" s="64"/>
+      <c r="R52" s="64"/>
+      <c r="S52" s="71"/>
+      <c r="T52" s="64"/>
+      <c r="U52" s="64"/>
+      <c r="V52" s="64"/>
+      <c r="W52" s="64">
         <v>8</v>
       </c>
       <c r="X52" s="2">
         <v>5</v>
       </c>
-      <c r="Y52" s="70" t="s">
+      <c r="Y52" s="69" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A53" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="65"/>
-      <c r="C53" s="84" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="72" t="s">
+      <c r="A53" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="64"/>
+      <c r="C53" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="E53" s="65">
+      <c r="E53" s="64">
         <f t="shared" ref="E53:E61" si="5">6*X53</f>
         <v>12</v>
       </c>
-      <c r="F53" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="72"/>
-      <c r="L53" s="72"/>
-      <c r="M53" s="72"/>
-      <c r="N53" s="72"/>
-      <c r="O53" s="72"/>
-      <c r="P53" s="72"/>
-      <c r="Q53" s="65"/>
-      <c r="R53" s="65"/>
-      <c r="S53" s="72"/>
-      <c r="T53" s="65"/>
-      <c r="U53" s="65"/>
-      <c r="V53" s="65"/>
-      <c r="W53" s="65">
+      <c r="F53" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="71"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="71"/>
+      <c r="N53" s="71"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="71"/>
+      <c r="Q53" s="64"/>
+      <c r="R53" s="64"/>
+      <c r="S53" s="71"/>
+      <c r="T53" s="64"/>
+      <c r="U53" s="64"/>
+      <c r="V53" s="64"/>
+      <c r="W53" s="64">
         <v>8</v>
       </c>
       <c r="X53" s="2">
         <v>2</v>
       </c>
-      <c r="Y53" s="70" t="s">
+      <c r="Y53" s="69" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A54" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="86" t="s">
+      <c r="A54" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="86" t="s">
+      <c r="C54" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="E54" s="65">
+      <c r="E54" s="64">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
@@ -4182,7 +4162,7 @@
       <c r="X54" s="2">
         <v>3</v>
       </c>
-      <c r="Y54" s="70" t="s">
+      <c r="Y54" s="69" t="s">
         <v>128</v>
       </c>
       <c r="AA54" s="1">
@@ -4195,17 +4175,17 @@
       </c>
     </row>
     <row r="55" spans="1:28" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A55" s="85" t="s">
+      <c r="A55" s="84" t="s">
         <v>0</v>
       </c>
       <c r="B55" s="3"/>
-      <c r="C55" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="86" t="s">
+      <c r="C55" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="E55" s="65">
+      <c r="E55" s="64">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
@@ -4234,22 +4214,22 @@
       <c r="X55" s="2">
         <v>8</v>
       </c>
-      <c r="Y55" s="70" t="s">
+      <c r="Y55" s="69" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A56" s="85" t="s">
+      <c r="A56" s="84" t="s">
         <v>0</v>
       </c>
       <c r="B56" s="3"/>
-      <c r="C56" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="86" t="s">
+      <c r="C56" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="E56" s="65">
+      <c r="E56" s="64">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
@@ -4278,22 +4258,22 @@
       <c r="X56" s="2">
         <v>3</v>
       </c>
-      <c r="Y56" s="70" t="s">
+      <c r="Y56" s="69" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A57" s="85" t="s">
+      <c r="A57" s="84" t="s">
         <v>0</v>
       </c>
       <c r="B57" s="3"/>
-      <c r="C57" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="86" t="s">
+      <c r="C57" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="E57" s="65">
+      <c r="E57" s="64">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
@@ -4324,17 +4304,17 @@
       </c>
     </row>
     <row r="58" spans="1:28" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A58" s="85" t="s">
+      <c r="A58" s="84" t="s">
         <v>0</v>
       </c>
       <c r="B58" s="3"/>
-      <c r="C58" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="86" t="s">
+      <c r="C58" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="E58" s="65">
+      <c r="E58" s="64">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
@@ -4365,17 +4345,17 @@
       </c>
     </row>
     <row r="59" spans="1:28" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A59" s="85" t="s">
+      <c r="A59" s="84" t="s">
         <v>0</v>
       </c>
       <c r="B59" s="3"/>
-      <c r="C59" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="86" t="s">
+      <c r="C59" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="E59" s="65">
+      <c r="E59" s="64">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
@@ -4406,17 +4386,17 @@
       </c>
     </row>
     <row r="60" spans="1:28" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A60" s="85" t="s">
+      <c r="A60" s="84" t="s">
         <v>0</v>
       </c>
       <c r="B60" s="3"/>
-      <c r="C60" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="86" t="s">
+      <c r="C60" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="E60" s="65">
+      <c r="E60" s="64">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
@@ -4447,17 +4427,17 @@
       </c>
     </row>
     <row r="61" spans="1:28" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A61" s="85" t="s">
+      <c r="A61" s="84" t="s">
         <v>0</v>
       </c>
       <c r="B61" s="3"/>
-      <c r="C61" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="86" t="s">
+      <c r="C61" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="E61" s="65">
+      <c r="E61" s="64">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
@@ -4488,12 +4468,12 @@
       </c>
     </row>
     <row r="62" spans="1:28" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A62" s="67"/>
+      <c r="A62" s="66"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="72"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="71"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="64"/>
+      <c r="F62" s="63"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -4514,130 +4494,130 @@
       <c r="X62" s="2"/>
     </row>
     <row r="63" spans="1:28" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A63" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="74" t="s">
+      <c r="A63" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="74" t="s">
+      <c r="C63" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="E63" s="76">
+      <c r="E63" s="75">
         <f>6*X63</f>
         <v>30</v>
       </c>
-      <c r="F63" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="G63" s="76"/>
-      <c r="H63" s="76"/>
-      <c r="I63" s="76"/>
-      <c r="J63" s="76"/>
-      <c r="K63" s="76"/>
-      <c r="L63" s="76"/>
-      <c r="M63" s="76"/>
-      <c r="N63" s="76"/>
-      <c r="O63" s="76"/>
-      <c r="P63" s="76"/>
-      <c r="Q63" s="76"/>
-      <c r="R63" s="76"/>
-      <c r="S63" s="76"/>
-      <c r="T63" s="76"/>
-      <c r="U63" s="76"/>
-      <c r="V63" s="76"/>
-      <c r="W63" s="76">
+      <c r="F63" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="75"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="75"/>
+      <c r="J63" s="75"/>
+      <c r="K63" s="75"/>
+      <c r="L63" s="75"/>
+      <c r="M63" s="75"/>
+      <c r="N63" s="75"/>
+      <c r="O63" s="75"/>
+      <c r="P63" s="75"/>
+      <c r="Q63" s="75"/>
+      <c r="R63" s="75"/>
+      <c r="S63" s="75"/>
+      <c r="T63" s="75"/>
+      <c r="U63" s="75"/>
+      <c r="V63" s="75"/>
+      <c r="W63" s="75">
         <v>9</v>
       </c>
       <c r="X63" s="2">
         <v>5</v>
       </c>
-      <c r="Y63" s="70" t="s">
+      <c r="Y63" s="69" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:28" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A64" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="76"/>
-      <c r="C64" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="74" t="s">
+      <c r="A64" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="75"/>
+      <c r="C64" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="76">
+      <c r="E64" s="75">
         <f t="shared" ref="E64:E72" si="6">6*X64</f>
         <v>48</v>
       </c>
-      <c r="F64" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="G64" s="76"/>
-      <c r="H64" s="76"/>
-      <c r="I64" s="76"/>
-      <c r="J64" s="76"/>
-      <c r="K64" s="76"/>
-      <c r="L64" s="76"/>
-      <c r="M64" s="76"/>
-      <c r="N64" s="76"/>
-      <c r="O64" s="76"/>
-      <c r="P64" s="76"/>
-      <c r="Q64" s="76"/>
-      <c r="R64" s="76"/>
-      <c r="S64" s="76"/>
-      <c r="T64" s="76"/>
-      <c r="U64" s="76"/>
-      <c r="V64" s="76"/>
-      <c r="W64" s="76">
+      <c r="F64" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="75"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="75"/>
+      <c r="J64" s="75"/>
+      <c r="K64" s="75"/>
+      <c r="L64" s="75"/>
+      <c r="M64" s="75"/>
+      <c r="N64" s="75"/>
+      <c r="O64" s="75"/>
+      <c r="P64" s="75"/>
+      <c r="Q64" s="75"/>
+      <c r="R64" s="75"/>
+      <c r="S64" s="75"/>
+      <c r="T64" s="75"/>
+      <c r="U64" s="75"/>
+      <c r="V64" s="75"/>
+      <c r="W64" s="75">
         <v>9</v>
       </c>
       <c r="X64" s="2">
         <v>8</v>
       </c>
-      <c r="Y64" s="70" t="s">
+      <c r="Y64" s="69" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:25" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A65" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="76"/>
-      <c r="C65" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="74" t="s">
+      <c r="A65" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="75"/>
+      <c r="C65" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="E65" s="76">
+      <c r="E65" s="75">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="F65" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="G65" s="76"/>
-      <c r="H65" s="76"/>
-      <c r="I65" s="76"/>
-      <c r="J65" s="76"/>
-      <c r="K65" s="76"/>
-      <c r="L65" s="76"/>
-      <c r="M65" s="76"/>
-      <c r="N65" s="76"/>
-      <c r="O65" s="76"/>
-      <c r="P65" s="76"/>
-      <c r="Q65" s="76"/>
-      <c r="R65" s="76"/>
-      <c r="S65" s="76"/>
-      <c r="T65" s="76"/>
-      <c r="U65" s="76"/>
-      <c r="V65" s="76"/>
-      <c r="W65" s="76">
+      <c r="F65" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="75"/>
+      <c r="H65" s="75"/>
+      <c r="I65" s="75"/>
+      <c r="J65" s="75"/>
+      <c r="K65" s="75"/>
+      <c r="L65" s="75"/>
+      <c r="M65" s="75"/>
+      <c r="N65" s="75"/>
+      <c r="O65" s="75"/>
+      <c r="P65" s="75"/>
+      <c r="Q65" s="75"/>
+      <c r="R65" s="75"/>
+      <c r="S65" s="75"/>
+      <c r="T65" s="75"/>
+      <c r="U65" s="75"/>
+      <c r="V65" s="75"/>
+      <c r="W65" s="75">
         <v>9</v>
       </c>
       <c r="X65" s="2">
@@ -4645,84 +4625,84 @@
       </c>
     </row>
     <row r="66" spans="1:25" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A66" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="76"/>
-      <c r="C66" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="74" t="s">
+      <c r="A66" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="75"/>
+      <c r="C66" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="E66" s="76">
+      <c r="E66" s="75">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="F66" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="76"/>
-      <c r="H66" s="76"/>
-      <c r="I66" s="76"/>
-      <c r="J66" s="76"/>
-      <c r="K66" s="76"/>
-      <c r="L66" s="76"/>
-      <c r="M66" s="76"/>
-      <c r="N66" s="76"/>
-      <c r="O66" s="76"/>
-      <c r="P66" s="76"/>
-      <c r="Q66" s="76"/>
-      <c r="R66" s="76"/>
-      <c r="S66" s="76"/>
-      <c r="T66" s="76"/>
-      <c r="U66" s="76"/>
-      <c r="V66" s="76"/>
-      <c r="W66" s="76">
+      <c r="F66" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="75"/>
+      <c r="H66" s="75"/>
+      <c r="I66" s="75"/>
+      <c r="J66" s="75"/>
+      <c r="K66" s="75"/>
+      <c r="L66" s="75"/>
+      <c r="M66" s="75"/>
+      <c r="N66" s="75"/>
+      <c r="O66" s="75"/>
+      <c r="P66" s="75"/>
+      <c r="Q66" s="75"/>
+      <c r="R66" s="75"/>
+      <c r="S66" s="75"/>
+      <c r="T66" s="75"/>
+      <c r="U66" s="75"/>
+      <c r="V66" s="75"/>
+      <c r="W66" s="75">
         <v>9</v>
       </c>
       <c r="X66" s="2">
         <v>1</v>
       </c>
-      <c r="Y66" s="70" t="s">
+      <c r="Y66" s="69" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:25" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A67" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="76"/>
-      <c r="C67" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="74" t="s">
+      <c r="A67" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="75"/>
+      <c r="C67" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="E67" s="76">
+      <c r="E67" s="75">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="F67" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="G67" s="76"/>
-      <c r="H67" s="76"/>
-      <c r="I67" s="76"/>
-      <c r="J67" s="76"/>
-      <c r="K67" s="76"/>
-      <c r="L67" s="76"/>
-      <c r="M67" s="76"/>
-      <c r="N67" s="76"/>
-      <c r="O67" s="76"/>
-      <c r="P67" s="76"/>
-      <c r="Q67" s="76"/>
-      <c r="R67" s="76"/>
-      <c r="S67" s="76"/>
-      <c r="T67" s="76"/>
-      <c r="U67" s="76"/>
-      <c r="V67" s="76"/>
-      <c r="W67" s="76">
+      <c r="F67" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67" s="75"/>
+      <c r="H67" s="75"/>
+      <c r="I67" s="75"/>
+      <c r="J67" s="75"/>
+      <c r="K67" s="75"/>
+      <c r="L67" s="75"/>
+      <c r="M67" s="75"/>
+      <c r="N67" s="75"/>
+      <c r="O67" s="75"/>
+      <c r="P67" s="75"/>
+      <c r="Q67" s="75"/>
+      <c r="R67" s="75"/>
+      <c r="S67" s="75"/>
+      <c r="T67" s="75"/>
+      <c r="U67" s="75"/>
+      <c r="V67" s="75"/>
+      <c r="W67" s="75">
         <v>9</v>
       </c>
       <c r="X67" s="2">
@@ -4730,172 +4710,172 @@
       </c>
     </row>
     <row r="68" spans="1:25" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A68" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="76"/>
-      <c r="C68" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D68" s="74" t="s">
+      <c r="A68" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="75"/>
+      <c r="C68" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="E68" s="76">
+      <c r="E68" s="75">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="F68" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="G68" s="76"/>
-      <c r="H68" s="76"/>
-      <c r="I68" s="76"/>
-      <c r="J68" s="76"/>
-      <c r="K68" s="76"/>
-      <c r="L68" s="76"/>
-      <c r="M68" s="76"/>
-      <c r="N68" s="76"/>
-      <c r="O68" s="76"/>
-      <c r="P68" s="76"/>
-      <c r="Q68" s="76"/>
-      <c r="R68" s="76"/>
-      <c r="S68" s="76"/>
-      <c r="T68" s="76"/>
-      <c r="U68" s="76"/>
-      <c r="V68" s="76"/>
-      <c r="W68" s="76">
+      <c r="F68" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="75"/>
+      <c r="H68" s="75"/>
+      <c r="I68" s="75"/>
+      <c r="J68" s="75"/>
+      <c r="K68" s="75"/>
+      <c r="L68" s="75"/>
+      <c r="M68" s="75"/>
+      <c r="N68" s="75"/>
+      <c r="O68" s="75"/>
+      <c r="P68" s="75"/>
+      <c r="Q68" s="75"/>
+      <c r="R68" s="75"/>
+      <c r="S68" s="75"/>
+      <c r="T68" s="75"/>
+      <c r="U68" s="75"/>
+      <c r="V68" s="75"/>
+      <c r="W68" s="75">
         <v>9</v>
       </c>
       <c r="X68" s="2">
         <v>2</v>
       </c>
-      <c r="Y68" s="70" t="s">
+      <c r="Y68" s="69" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:25" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A69" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="76"/>
-      <c r="C69" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="74" t="s">
+      <c r="A69" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="75"/>
+      <c r="C69" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="E69" s="76">
+      <c r="E69" s="75">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="F69" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="G69" s="76"/>
-      <c r="H69" s="76"/>
-      <c r="I69" s="76"/>
-      <c r="J69" s="76"/>
-      <c r="K69" s="76"/>
-      <c r="L69" s="76"/>
-      <c r="M69" s="76"/>
-      <c r="N69" s="76"/>
-      <c r="O69" s="76"/>
-      <c r="P69" s="76"/>
-      <c r="Q69" s="76"/>
-      <c r="R69" s="76"/>
-      <c r="S69" s="76"/>
-      <c r="T69" s="76"/>
-      <c r="U69" s="76"/>
-      <c r="V69" s="76"/>
-      <c r="W69" s="76">
+      <c r="F69" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="75"/>
+      <c r="H69" s="75"/>
+      <c r="I69" s="75"/>
+      <c r="J69" s="75"/>
+      <c r="K69" s="75"/>
+      <c r="L69" s="75"/>
+      <c r="M69" s="75"/>
+      <c r="N69" s="75"/>
+      <c r="O69" s="75"/>
+      <c r="P69" s="75"/>
+      <c r="Q69" s="75"/>
+      <c r="R69" s="75"/>
+      <c r="S69" s="75"/>
+      <c r="T69" s="75"/>
+      <c r="U69" s="75"/>
+      <c r="V69" s="75"/>
+      <c r="W69" s="75">
         <v>9</v>
       </c>
       <c r="X69" s="2">
         <v>2</v>
       </c>
-      <c r="Y69" s="70" t="s">
+      <c r="Y69" s="69" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:25" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A70" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="76"/>
-      <c r="C70" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="74" t="s">
+      <c r="A70" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="75"/>
+      <c r="C70" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E70" s="76">
+      <c r="E70" s="75">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="F70" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="G70" s="76"/>
-      <c r="H70" s="76"/>
-      <c r="I70" s="76"/>
-      <c r="J70" s="76"/>
-      <c r="K70" s="76"/>
-      <c r="L70" s="76"/>
-      <c r="M70" s="76"/>
-      <c r="N70" s="76"/>
-      <c r="O70" s="76"/>
-      <c r="P70" s="76"/>
-      <c r="Q70" s="76"/>
-      <c r="R70" s="76"/>
-      <c r="S70" s="76"/>
-      <c r="T70" s="76"/>
-      <c r="U70" s="76"/>
-      <c r="V70" s="76"/>
-      <c r="W70" s="76">
+      <c r="F70" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" s="75"/>
+      <c r="H70" s="75"/>
+      <c r="I70" s="75"/>
+      <c r="J70" s="75"/>
+      <c r="K70" s="75"/>
+      <c r="L70" s="75"/>
+      <c r="M70" s="75"/>
+      <c r="N70" s="75"/>
+      <c r="O70" s="75"/>
+      <c r="P70" s="75"/>
+      <c r="Q70" s="75"/>
+      <c r="R70" s="75"/>
+      <c r="S70" s="75"/>
+      <c r="T70" s="75"/>
+      <c r="U70" s="75"/>
+      <c r="V70" s="75"/>
+      <c r="W70" s="75">
         <v>9</v>
       </c>
       <c r="X70" s="2">
         <v>2</v>
       </c>
-      <c r="Y70" s="70" t="s">
+      <c r="Y70" s="69" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:25" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A71" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="76"/>
-      <c r="C71" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" s="74" t="s">
+      <c r="A71" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="75"/>
+      <c r="C71" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E71" s="76">
+      <c r="E71" s="75">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="F71" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="G71" s="76"/>
-      <c r="H71" s="76"/>
-      <c r="I71" s="76"/>
-      <c r="J71" s="76"/>
-      <c r="K71" s="76"/>
-      <c r="L71" s="76"/>
-      <c r="M71" s="76"/>
-      <c r="N71" s="76"/>
-      <c r="O71" s="76"/>
-      <c r="P71" s="76"/>
-      <c r="Q71" s="76"/>
-      <c r="R71" s="76"/>
-      <c r="S71" s="76"/>
-      <c r="T71" s="76"/>
-      <c r="U71" s="76"/>
-      <c r="V71" s="76"/>
-      <c r="W71" s="76">
+      <c r="F71" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="75"/>
+      <c r="H71" s="75"/>
+      <c r="I71" s="75"/>
+      <c r="J71" s="75"/>
+      <c r="K71" s="75"/>
+      <c r="L71" s="75"/>
+      <c r="M71" s="75"/>
+      <c r="N71" s="75"/>
+      <c r="O71" s="75"/>
+      <c r="P71" s="75"/>
+      <c r="Q71" s="75"/>
+      <c r="R71" s="75"/>
+      <c r="S71" s="75"/>
+      <c r="T71" s="75"/>
+      <c r="U71" s="75"/>
+      <c r="V71" s="75"/>
+      <c r="W71" s="75">
         <v>9</v>
       </c>
       <c r="X71" s="2">
@@ -4903,40 +4883,40 @@
       </c>
     </row>
     <row r="72" spans="1:25" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A72" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="76"/>
-      <c r="C72" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="74" t="s">
+      <c r="A72" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="75"/>
+      <c r="C72" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="E72" s="76">
+      <c r="E72" s="75">
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="F72" s="74" t="s">
+      <c r="F72" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="G72" s="76"/>
-      <c r="H72" s="76"/>
-      <c r="I72" s="76"/>
-      <c r="J72" s="76"/>
-      <c r="K72" s="76"/>
-      <c r="L72" s="76"/>
-      <c r="M72" s="76"/>
-      <c r="N72" s="76"/>
-      <c r="O72" s="76"/>
-      <c r="P72" s="76"/>
-      <c r="Q72" s="76"/>
-      <c r="R72" s="76"/>
-      <c r="S72" s="76"/>
-      <c r="T72" s="76"/>
-      <c r="U72" s="76"/>
-      <c r="V72" s="76"/>
-      <c r="W72" s="76">
+      <c r="G72" s="75"/>
+      <c r="H72" s="75"/>
+      <c r="I72" s="75"/>
+      <c r="J72" s="75"/>
+      <c r="K72" s="75"/>
+      <c r="L72" s="75"/>
+      <c r="M72" s="75"/>
+      <c r="N72" s="75"/>
+      <c r="O72" s="75"/>
+      <c r="P72" s="75"/>
+      <c r="Q72" s="75"/>
+      <c r="R72" s="75"/>
+      <c r="S72" s="75"/>
+      <c r="T72" s="75"/>
+      <c r="U72" s="75"/>
+      <c r="V72" s="75"/>
+      <c r="W72" s="75">
         <v>9</v>
       </c>
       <c r="X72" s="2">
@@ -4944,10 +4924,10 @@
       </c>
     </row>
     <row r="73" spans="1:25" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A73" s="67"/>
+      <c r="A73" s="66"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="68"/>
-      <c r="D73" s="72"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="71"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -4970,42 +4950,42 @@
       <c r="X73" s="2"/>
     </row>
     <row r="74" spans="1:25" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A74" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="80" t="s">
+      <c r="A74" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74" s="80" t="s">
+      <c r="C74" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="82">
+      <c r="E74" s="81">
         <f>6*X74</f>
         <v>12</v>
       </c>
-      <c r="F74" s="80" t="s">
+      <c r="F74" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="G74" s="82"/>
-      <c r="H74" s="82"/>
-      <c r="I74" s="82"/>
-      <c r="J74" s="82"/>
-      <c r="K74" s="82"/>
-      <c r="L74" s="82"/>
-      <c r="M74" s="82"/>
-      <c r="N74" s="82"/>
-      <c r="O74" s="82"/>
-      <c r="P74" s="82"/>
-      <c r="Q74" s="82"/>
-      <c r="R74" s="82"/>
-      <c r="S74" s="82"/>
-      <c r="T74" s="82"/>
-      <c r="U74" s="82"/>
-      <c r="V74" s="82"/>
-      <c r="W74" s="88">
+      <c r="G74" s="81"/>
+      <c r="H74" s="81"/>
+      <c r="I74" s="81"/>
+      <c r="J74" s="81"/>
+      <c r="K74" s="81"/>
+      <c r="L74" s="81"/>
+      <c r="M74" s="81"/>
+      <c r="N74" s="81"/>
+      <c r="O74" s="81"/>
+      <c r="P74" s="81"/>
+      <c r="Q74" s="81"/>
+      <c r="R74" s="81"/>
+      <c r="S74" s="81"/>
+      <c r="T74" s="81"/>
+      <c r="U74" s="81"/>
+      <c r="V74" s="81"/>
+      <c r="W74" s="87">
         <v>10</v>
       </c>
       <c r="X74" s="2">
@@ -5013,50 +4993,50 @@
       </c>
     </row>
     <row r="75" spans="1:25" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A75" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="82"/>
-      <c r="C75" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" s="80" t="s">
+      <c r="A75" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="81"/>
+      <c r="C75" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E75" s="82">
+      <c r="E75" s="81">
         <f>6*X75</f>
         <v>18</v>
       </c>
-      <c r="F75" s="80" t="s">
+      <c r="F75" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="G75" s="82"/>
-      <c r="H75" s="82"/>
-      <c r="I75" s="82"/>
-      <c r="J75" s="82"/>
-      <c r="K75" s="82"/>
-      <c r="L75" s="82"/>
-      <c r="M75" s="82"/>
-      <c r="N75" s="82"/>
-      <c r="O75" s="82"/>
-      <c r="P75" s="82"/>
-      <c r="Q75" s="82"/>
-      <c r="R75" s="82"/>
-      <c r="S75" s="82"/>
-      <c r="T75" s="82"/>
-      <c r="U75" s="82"/>
-      <c r="V75" s="82"/>
-      <c r="W75" s="88">
+      <c r="G75" s="81"/>
+      <c r="H75" s="81"/>
+      <c r="I75" s="81"/>
+      <c r="J75" s="81"/>
+      <c r="K75" s="81"/>
+      <c r="L75" s="81"/>
+      <c r="M75" s="81"/>
+      <c r="N75" s="81"/>
+      <c r="O75" s="81"/>
+      <c r="P75" s="81"/>
+      <c r="Q75" s="81"/>
+      <c r="R75" s="81"/>
+      <c r="S75" s="81"/>
+      <c r="T75" s="81"/>
+      <c r="U75" s="81"/>
+      <c r="V75" s="81"/>
+      <c r="W75" s="87">
         <v>10</v>
       </c>
-      <c r="X75" s="77">
+      <c r="X75" s="76">
         <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:25" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A76" s="67"/>
+      <c r="A76" s="66"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="68"/>
+      <c r="C76" s="67"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -5079,23 +5059,23 @@
       <c r="W76" s="2"/>
     </row>
     <row r="77" spans="1:25" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A77" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="86" t="s">
+      <c r="A77" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="86" t="s">
+      <c r="C77" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="85" t="s">
         <v>21</v>
       </c>
       <c r="E77" s="3">
         <f>6*X77</f>
         <v>78</v>
       </c>
-      <c r="F77" s="86" t="s">
+      <c r="F77" s="85" t="s">
         <v>18</v>
       </c>
       <c r="G77" s="3"/>
@@ -5114,7 +5094,7 @@
       <c r="T77" s="3"/>
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
-      <c r="W77" s="89">
+      <c r="W77" s="88">
         <v>11</v>
       </c>
       <c r="X77" s="2">
@@ -5122,21 +5102,21 @@
       </c>
     </row>
     <row r="78" spans="1:25" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A78" s="85" t="s">
+      <c r="A78" s="84" t="s">
         <v>0</v>
       </c>
       <c r="B78" s="3"/>
-      <c r="C78" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="86" t="s">
+      <c r="C78" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="85" t="s">
         <v>22</v>
       </c>
       <c r="E78" s="3">
         <f>6*X78</f>
         <v>30</v>
       </c>
-      <c r="F78" s="86" t="s">
+      <c r="F78" s="85" t="s">
         <v>18</v>
       </c>
       <c r="G78" s="3"/>
@@ -5155,7 +5135,7 @@
       <c r="T78" s="3"/>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
-      <c r="W78" s="89">
+      <c r="W78" s="88">
         <v>11</v>
       </c>
       <c r="X78" s="2">
@@ -5243,10 +5223,10 @@
     </row>
     <row r="82" spans="1:24" ht="13.5" thickTop="1"/>
     <row r="83" spans="1:24">
-      <c r="D83" s="90" t="s">
+      <c r="D83" s="89" t="s">
         <v>126</v>
       </c>
-      <c r="E83" s="91">
+      <c r="E83" s="90">
         <f>SUM(E2:E81)</f>
         <v>1788</v>
       </c>
@@ -5974,10 +5954,10 @@
     <row r="33" spans="1:9" s="47" customFormat="1"/>
     <row r="34" spans="1:9" s="47" customFormat="1"/>
     <row r="35" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="61"/>
+      <c r="B35" s="91"/>
     </row>
     <row r="36" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A36" s="24" t="s">

--- a/trunk/Proyecto final/ProductBacklogProyecto/Actualizacion Product Backlog.xlsx
+++ b/trunk/Proyecto final/ProductBacklogProyecto/Actualizacion Product Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog Items" sheetId="4" r:id="rId1"/>
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="129">
   <si>
     <t>Story</t>
   </si>
@@ -1412,7 +1412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="X2" sqref="X2:X81"/>
     </sheetView>
   </sheetViews>
@@ -5246,10 +5246,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5469,39 +5469,15 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1"/>
-    <row r="9" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="12">
-        <v>48</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12">
-        <v>6</v>
-      </c>
-      <c r="I9" s="13">
-        <v>8</v>
-      </c>
-    </row>
+    <row r="8" spans="1:12" ht="15.75" thickTop="1"/>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="C10" s="11" t="s">
         <v>2</v>
       </c>
@@ -5569,7 +5545,7 @@
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I13" s="14">
         <v>2</v>
@@ -5594,7 +5570,7 @@
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I14" s="20">
         <v>3</v>
@@ -5889,6 +5865,9 @@
       <c r="F27" s="32" t="s">
         <v>3</v>
       </c>
+      <c r="H27" s="29">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:12" s="29" customFormat="1" ht="15.75" thickBot="1">
       <c r="B28" s="31"/>
@@ -5902,6 +5881,9 @@
       <c r="F28" s="32" t="s">
         <v>3</v>
       </c>
+      <c r="H28" s="29">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:12" s="29" customFormat="1" ht="15.75" thickBot="1">
       <c r="B29" s="37"/>
@@ -5915,6 +5897,9 @@
       <c r="F29" s="32" t="s">
         <v>3</v>
       </c>
+      <c r="H29" s="29">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="1:12" s="47" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="31" spans="1:12" s="48" customFormat="1" ht="15.75" thickBot="1">
@@ -5936,6 +5921,9 @@
       <c r="F31" s="48" t="s">
         <v>18</v>
       </c>
+      <c r="H31" s="48">
+        <v>7</v>
+      </c>
       <c r="I31" s="48">
         <v>8</v>
       </c>
@@ -5946,6 +5934,9 @@
       </c>
       <c r="E32" s="48">
         <v>30</v>
+      </c>
+      <c r="H32" s="48">
+        <v>8</v>
       </c>
       <c r="I32" s="48">
         <v>5</v>
@@ -5980,7 +5971,7 @@
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="28">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I36" s="22">
         <v>13</v>
@@ -6005,7 +5996,7 @@
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="28">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I37" s="22">
         <v>5</v>
@@ -6041,7 +6032,7 @@
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
       <c r="H39" s="22">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I39" s="22">
         <v>8</v>
@@ -6064,12 +6055,41 @@
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
       <c r="H40" s="22">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I40" s="22">
         <v>8</v>
       </c>
     </row>
+    <row r="41" spans="1:9" ht="16.5" thickTop="1" thickBot="1"/>
+    <row r="42" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A42" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="12">
+        <v>48</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12">
+        <v>6</v>
+      </c>
+      <c r="I42" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A35:B35"/>
